--- a/JPM.xlsx
+++ b/JPM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kartan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CA3487-60AE-4DBE-81C7-CAC822911CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AB6DA9-86A6-4B33-8EF4-FF5E8E19BBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21810" yWindow="120" windowWidth="29280" windowHeight="20850" activeTab="1" xr2:uid="{6FF43043-9969-4618-AD8F-D77E99073F78}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="23385" activeTab="1" xr2:uid="{6FF43043-9969-4618-AD8F-D77E99073F78}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Price</t>
   </si>
@@ -136,6 +136,21 @@
   </si>
   <si>
     <t>TANGIBLE BOOK VALUE</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>PB-Multiple</t>
+  </si>
+  <si>
+    <t>Shares Outstanding</t>
+  </si>
+  <si>
+    <t>PTB-Multiple</t>
+  </si>
+  <si>
+    <t>Book value per share</t>
   </si>
 </sst>
 </file>
@@ -185,7 +200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -194,21 +209,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -224,7 +235,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -520,17 +531,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F071C86-EC61-4610-903D-70620392B3EE}">
-  <dimension ref="H2:L7"/>
+  <dimension ref="H1:L7"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="2" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H2" s="2"/>
       <c r="J2" t="s">
@@ -539,17 +558,19 @@
       <c r="K2" s="1">
         <v>133.65</v>
       </c>
+      <c r="L2">
+        <v>130.31</v>
+      </c>
     </row>
     <row r="3" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H3" s="6"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="2">
         <v>2943.3554589999999</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>6</v>
+      <c r="L3" s="4">
+        <v>2922.3</v>
       </c>
     </row>
     <row r="4" spans="8:12" x14ac:dyDescent="0.2">
@@ -560,22 +581,22 @@
         <f>K2*K3</f>
         <v>393379.45709535002</v>
       </c>
+      <c r="L4" s="3">
+        <f>L2*L3</f>
+        <v>380804.91300000006</v>
+      </c>
     </row>
     <row r="5" spans="8:12" x14ac:dyDescent="0.2">
       <c r="J5" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="8:12" x14ac:dyDescent="0.2">
       <c r="J6" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="8:12" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
@@ -589,16 +610,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14C4F3A-0E9F-4DB7-B175-0A62FF848762}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
@@ -606,12 +627,12 @@
     <col min="10" max="10" width="9.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
@@ -636,182 +657,668 @@
       <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>133.65</v>
+      </c>
+      <c r="K5">
+        <v>130.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2937.1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2932.6</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2933.2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2943.3554589999999</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2922.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>400379</v>
+      </c>
+      <c r="H7" s="4">
+        <v>330237</v>
+      </c>
+      <c r="I7" s="4">
+        <v>306520</v>
+      </c>
+      <c r="J7" s="3">
+        <f>J5*J6</f>
+        <v>393379.45709535002</v>
+      </c>
+      <c r="K7" s="3">
+        <f>K5*K6</f>
+        <v>380804.91300000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J8" s="2"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="8">
+      <c r="G9" s="4">
+        <v>26165</v>
+      </c>
+      <c r="H9" s="4">
+        <v>27215</v>
+      </c>
+      <c r="I9" s="4">
+        <v>24654</v>
+      </c>
+      <c r="J9" s="7">
         <v>27697</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="K9">
+        <v>25098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="8">
+      <c r="G10" s="4">
+        <v>728367</v>
+      </c>
+      <c r="H10" s="4">
+        <v>642045</v>
+      </c>
+      <c r="I10" s="4">
+        <v>619533</v>
+      </c>
+      <c r="J10" s="7">
         <v>539537</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="K10">
+        <v>520902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="9">
+      <c r="G11" s="4">
+        <v>301875</v>
+      </c>
+      <c r="H11" s="4">
+        <v>322156</v>
+      </c>
+      <c r="I11" s="4">
+        <v>301878</v>
+      </c>
+      <c r="J11" s="6">
         <v>315592</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="K11">
+        <v>317111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="9">
+      <c r="G12" s="4">
+        <v>224852</v>
+      </c>
+      <c r="H12" s="4">
+        <v>202393</v>
+      </c>
+      <c r="I12" s="4">
+        <v>193216</v>
+      </c>
+      <c r="J12" s="6">
         <v>185369</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="K12">
+        <v>195917</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="9">
+      <c r="G13" s="4">
+        <v>511528</v>
+      </c>
+      <c r="H13" s="4">
+        <f>384260+81317</f>
+        <v>465577</v>
+      </c>
+      <c r="I13" s="4">
+        <f>413953+92534</f>
+        <v>506487</v>
+      </c>
+      <c r="J13" s="6">
         <v>453799</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="K13">
+        <f>519618+59274</f>
+        <v>578892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="8">
+      <c r="G14" s="4">
+        <f>312875+366585</f>
+        <v>679460</v>
+      </c>
+      <c r="H14" s="4">
+        <f>222069+441649</f>
+        <v>663718</v>
+      </c>
+      <c r="I14" s="4">
+        <f>188140+430106</f>
+        <v>618246</v>
+      </c>
+      <c r="J14" s="7">
         <f>205857+425305</f>
         <v>631162</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="K14">
+        <f>197248+412827</f>
+        <v>610075</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="8">
+      <c r="G15" s="4">
+        <v>1056093</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1086405</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1094448</v>
+      </c>
+      <c r="J15" s="7">
         <v>1115921</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="K15">
+        <v>1108843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="7">
+      <c r="G16" s="4">
+        <v>152207</v>
+      </c>
+      <c r="H16" s="4">
+        <v>145442</v>
+      </c>
+      <c r="I16" s="4">
+        <v>143905</v>
+      </c>
+      <c r="J16" s="6">
         <v>125189</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="K16">
+        <v>115316</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="7">
+      <c r="G17" s="4">
+        <v>26916</v>
+      </c>
+      <c r="H17" s="4">
+        <v>26770</v>
+      </c>
+      <c r="I17" s="4">
+        <v>27199</v>
+      </c>
+      <c r="J17" s="6">
         <v>27734</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="K17">
+        <v>28266</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="7">
+      <c r="G18" s="4">
+        <v>58485</v>
+      </c>
+      <c r="H18" s="4">
+        <v>59360</v>
+      </c>
+      <c r="I18" s="4">
+        <v>60806</v>
+      </c>
+      <c r="J18" s="6">
         <v>60859</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="K18">
+        <v>62090</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="7">
+      <c r="G19" s="4">
+        <v>188739</v>
+      </c>
+      <c r="H19" s="4">
+        <v>200233</v>
+      </c>
+      <c r="I19" s="4">
+        <v>183512</v>
+      </c>
+      <c r="J19" s="6">
         <v>182884</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="K19">
+        <v>181795</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="8">
-        <f>SUM(J5:J15)</f>
+      <c r="C20" s="7">
+        <f t="shared" ref="C20:I20" si="0">SUM(C9:C19)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="0"/>
+        <v>3954687</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>3841314</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="0"/>
+        <v>3773884</v>
+      </c>
+      <c r="J20" s="7">
+        <f>SUM(J9:J19)</f>
         <v>3665743</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
+      <c r="K20" s="7">
+        <f>SUM(K9:K19)</f>
+        <v>3744305</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="9">
+      <c r="G22" s="4">
+        <v>2561207</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2471544</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2408615</v>
+      </c>
+      <c r="J22" s="6">
         <v>2340179</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="K22">
+        <v>2337253</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="9">
+      <c r="G23" s="4">
+        <v>223858</v>
+      </c>
+      <c r="H23" s="4">
+        <v>222719</v>
+      </c>
+      <c r="I23" s="4">
+        <v>239939</v>
+      </c>
+      <c r="J23" s="6">
         <v>202613</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+      <c r="K23">
+        <v>246396</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="9">
+      <c r="G24" s="4">
+        <f>57586+293239</f>
+        <v>350825</v>
+      </c>
+      <c r="H24" s="4">
+        <f>58422+288212</f>
+        <v>346634</v>
+      </c>
+      <c r="I24" s="4">
+        <f>47866+287473</f>
+        <v>335339</v>
+      </c>
+      <c r="J24" s="6">
         <f>44027+295865</f>
         <v>339892</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="K24">
+        <f>42241+295489</f>
+        <v>337730</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="7">
+      <c r="G25" s="4">
+        <f>144280+57803</f>
+        <v>202083</v>
+      </c>
+      <c r="H25" s="4">
+        <f>137891+52417</f>
+        <v>190308</v>
+      </c>
+      <c r="I25" s="4">
+        <f>133175+56703</f>
+        <v>189878</v>
+      </c>
+      <c r="J25" s="6">
         <v>177976</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="K25">
+        <f>145153+44711</f>
+        <v>189864</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="7">
+      <c r="G26" s="4">
+        <v>320671</v>
+      </c>
+      <c r="H26" s="4">
+        <v>313326</v>
+      </c>
+      <c r="I26" s="4">
+        <v>300016</v>
+      </c>
+      <c r="J26" s="6">
         <v>300141</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+      <c r="K26">
+        <v>275077</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="4">
+      <c r="G27" s="4">
+        <v>10144</v>
+      </c>
+      <c r="H27" s="4">
+        <v>10640</v>
+      </c>
+      <c r="I27" s="4">
+        <v>12079</v>
+      </c>
+      <c r="J27" s="4">
         <v>12610</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+      <c r="K27">
+        <v>14903</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="8">
-        <f>SUM(J18:J23)</f>
+      <c r="C28" s="7">
+        <f t="shared" ref="C28:I28" si="1">SUM(C22:C27)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="1"/>
+        <v>3668788</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="1"/>
+        <v>3555171</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="1"/>
+        <v>3485866</v>
+      </c>
+      <c r="J28" s="7">
+        <f>SUM(J22:J27)</f>
         <v>3373411</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="K28" s="7">
+        <f>SUM(K22:K27)</f>
+        <v>3401223</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="8">
-        <f>J16-J24</f>
+      <c r="C30" s="7">
+        <f t="shared" ref="C30:I30" si="2">C20-C28</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="2"/>
+        <v>285899</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="2"/>
+        <v>286143</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" si="2"/>
+        <v>288018</v>
+      </c>
+      <c r="J30" s="7">
+        <f>J20-J28</f>
         <v>292332</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="K30" s="7">
+        <f>K20-K28</f>
+        <v>343082</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="8">
-        <f>J26-J14</f>
+      <c r="C31" s="7">
+        <f t="shared" ref="C31:I31" si="3">C30-C18</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="3"/>
+        <v>227414</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="3"/>
+        <v>226783</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="3"/>
+        <v>227212</v>
+      </c>
+      <c r="J31" s="7">
+        <f>J30-J18</f>
         <v>231473</v>
+      </c>
+      <c r="K31" s="7">
+        <f>K30-K18</f>
+        <v>280992</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7">
+        <f t="shared" ref="G32:I32" si="4">G31/G6</f>
+        <v>77.428075312382958</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="4"/>
+        <v>77.331719293459727</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="4"/>
+        <v>77.462157370789583</v>
+      </c>
+      <c r="J32" s="7">
+        <f>J31/J6</f>
+        <v>78.64255718493564</v>
+      </c>
+      <c r="K32" s="7">
+        <f>K31/K6</f>
+        <v>96.154398932347803</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:J33" si="5">G7/G30</f>
+        <v>1.4004211277409155</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="5"/>
+        <v>1.1540977762866818</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="5"/>
+        <v>1.0642390406155171</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>1.3456599246587784</v>
+      </c>
+      <c r="K33">
+        <f>K7/K30</f>
+        <v>1.1099530520400371</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34:J34" si="6">G7/G31</f>
+        <v>1.760573227681673</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="6"/>
+        <v>1.4561805779092789</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="6"/>
+        <v>1.3490484657500483</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="6"/>
+        <v>1.6994615229221119</v>
+      </c>
+      <c r="K34">
+        <f>K7/K31</f>
+        <v>1.3552162090023918</v>
       </c>
     </row>
   </sheetData>

--- a/JPM.xlsx
+++ b/JPM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CA3487-60AE-4DBE-81C7-CAC822911CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F73B71-E31F-4346-A543-3AF17C3597F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21810" yWindow="120" windowWidth="29280" windowHeight="20850" activeTab="1" xr2:uid="{6FF43043-9969-4618-AD8F-D77E99073F78}"/>
+    <workbookView xWindow="39050" yWindow="2980" windowWidth="24340" windowHeight="15680" xr2:uid="{6FF43043-9969-4618-AD8F-D77E99073F78}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Price</t>
   </si>
@@ -136,13 +136,49 @@
   </si>
   <si>
     <t>TANGIBLE BOOK VALUE</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -160,6 +196,13 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -185,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -194,17 +237,23 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -223,10 +272,65 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>11043</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>44174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>11043</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>132521</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F999D2C-018C-8305-9F97-F44A47A2F2BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13268739" y="44174"/>
+          <a:ext cx="0" cy="7989956"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -264,7 +368,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -370,7 +474,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -512,7 +616,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -522,64 +626,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F071C86-EC61-4610-903D-70620392B3EE}">
   <dimension ref="H2:L7"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H2" s="2"/>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>133.65</v>
-      </c>
-    </row>
-    <row r="3" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H3" s="6"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>2943.3554589999999</v>
+        <v>2749.753854</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="8:12" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="8:12" ht="13" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="3">
         <f>K2*K3</f>
-        <v>393379.45709535002</v>
-      </c>
-    </row>
-    <row r="5" spans="8:12" x14ac:dyDescent="0.2">
+        <v>855173.44859399996</v>
+      </c>
+    </row>
+    <row r="5" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>3</v>
       </c>
+      <c r="K5" s="2">
+        <f>+Model!T5+Model!T6+Model!T8+Model!T9+Model!T10+Model!T11</f>
+        <v>3667137</v>
+      </c>
       <c r="L5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="8:12" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
         <v>4</v>
       </c>
+      <c r="K6" s="2">
+        <f>Model!T18+Model!T20+Model!T21</f>
+        <v>3268877</v>
+      </c>
       <c r="L6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="8:12" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="8:12" ht="13" x14ac:dyDescent="0.3">
       <c r="J7" t="s">
         <v>5</v>
+      </c>
+      <c r="K7" s="3">
+        <f>+K4-K5+K6</f>
+        <v>456913.44859400019</v>
       </c>
     </row>
   </sheetData>
@@ -589,29 +705,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14C4F3A-0E9F-4DB7-B175-0A62FF848762}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="9" width="9.140625" style="4"/>
-    <col min="10" max="10" width="9.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" customWidth="1"/>
+    <col min="3" max="9" width="9.1796875" style="4"/>
+    <col min="10" max="10" width="9.54296875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
@@ -636,182 +753,333 @@
       <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="K4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="13" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>27697</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="T5" s="7">
+        <v>23759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="13" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>539537</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="T6" s="7">
+        <v>396568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="9">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11">
         <v>315592</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="T7" s="11">
+        <v>470589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="9">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="7">
         <v>185369</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="T8" s="7">
+        <v>223976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="9">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="7">
         <v>453799</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="T9" s="7">
+        <v>889856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="13" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <f>205857+425305</f>
         <v>631162</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="T10" s="7">
+        <f>485380+260559</f>
+        <v>745939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="13" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>1115921</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="T11" s="7">
+        <v>1387039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>125189</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="T12" s="6">
+        <v>124463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>27734</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="T13" s="6">
+        <v>33562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>60859</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="T14" s="6">
+        <v>64465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>182884</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="T15" s="6">
+        <v>192266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <f>SUM(J5:J15)</f>
         <v>3665743</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="T16" s="7">
+        <f>SUM(T5:T15)</f>
+        <v>4552482</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="6">
         <v>2340179</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="T18" s="7">
+        <v>2562380</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="9">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11">
         <v>202613</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+      <c r="T19" s="11">
+        <v>595340</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="9">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="7">
         <f>44027+295865</f>
         <v>339892</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="T20" s="7">
+        <f>419802+65293</f>
+        <v>485095</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
       <c r="J21" s="7">
         <v>177976</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="T21" s="7">
+        <v>221402</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <v>300141</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="T22" s="6">
+        <v>303641</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>29</v>
       </c>
       <c r="J23" s="4">
         <v>12610</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="T23" s="6">
+        <v>27700</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="7">
         <f>SUM(J18:J23)</f>
         <v>3373411</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="T24" s="7">
+        <f>SUM(T18:T23)</f>
+        <v>4195558</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" ht="13" x14ac:dyDescent="0.3">
+      <c r="J25" s="7"/>
+      <c r="T25" s="7"/>
+    </row>
+    <row r="26" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="7">
         <f>J16-J24</f>
         <v>292332</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="T26" s="7">
+        <f>T16-T24</f>
+        <v>356924</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="7">
         <f>J26-J14</f>
         <v>231473</v>
+      </c>
+      <c r="T27" s="7">
+        <f>T26-T14</f>
+        <v>292459</v>
       </c>
     </row>
   </sheetData>
@@ -819,5 +1087,6 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{46973D5C-681B-4F76-BF91-D6D47D1751BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>